--- a/biology/Histoire de la zoologie et de la botanique/Aaron_Matthew_Bauer/Aaron_Matthew_Bauer.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Aaron_Matthew_Bauer/Aaron_Matthew_Bauer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aaron Matthew Bauer est un biologiste américain, né le 27 juin 1961 à New York. Il est actuellement professeur de biologie à l'université Villanova, en Pennsylvanie (États-Unis), où il réside.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études à New York et dans le Michigan, il a étudié la zoologie à l'université de Californie, Berkeley de 1982 à 1986, où il a obtenu son doctorat.
 Il étudie l'évolution des geckos d'un point de vue biologique, et s'intéresse également aux causes des extinctions d'espèces.
@@ -544,13 +558,15 @@
           <t>Les espèces dédiées à Bauer</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Cnemaspis baueri
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cnemaspis baueri
 Cyrtodactylus aaroni
 Dixonius aaronbaueri
 Eurydactylodes agricolae
-Hemidactylus aaronbaueri [1]</t>
+Hemidactylus aaronbaueri </t>
         </is>
       </c>
     </row>
